--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1489,7 +1489,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1499,6 +1499,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1516,7 +1522,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1541,6 +1547,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1848,7 +1855,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1858,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1943,7 +1950,7 @@
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1954,7 +1961,7 @@
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1965,7 +1972,7 @@
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1976,7 +1983,7 @@
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -1987,7 +1994,7 @@
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1998,7 +2005,7 @@
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
